--- a/DisassembleData/Instruction_1900012739_.xlsx
+++ b/DisassembleData/Instruction_1900012739_.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="168">
   <si>
     <t>movq</t>
   </si>
@@ -514,13 +514,13 @@
     <t>双参指令</t>
   </si>
   <si>
+    <t>多参指令</t>
+  </si>
+  <si>
     <t>单参指令</t>
   </si>
   <si>
     <t>无参指令</t>
-  </si>
-  <si>
-    <t>多参指令</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2220,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2228,34 +2228,1314 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1">
-        <v>39254</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>165</v>
-      </c>
-      <c r="B2">
-        <v>19976</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3">
-        <v>1703</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>167</v>
       </c>
-      <c r="B4">
-        <v>281</v>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +3570,7 @@
         <v>5769</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2312,7 +3592,7 @@
         <v>3453</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2323,7 +3603,7 @@
         <v>3332</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2345,7 +3625,7 @@
         <v>2645</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2356,7 +3636,7 @@
         <v>1907</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2367,7 +3647,7 @@
         <v>1444</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2444,7 +3724,7 @@
         <v>783</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2488,7 +3768,7 @@
         <v>585</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2554,7 +3834,7 @@
         <v>311</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2576,7 +3856,7 @@
         <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2587,7 +3867,7 @@
         <v>252</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2598,7 +3878,7 @@
         <v>222</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2653,7 +3933,7 @@
         <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2664,7 +3944,7 @@
         <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2686,7 +3966,7 @@
         <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2708,7 +3988,7 @@
         <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2741,7 +4021,7 @@
         <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2763,7 +4043,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2796,7 +4076,7 @@
         <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2807,7 +4087,7 @@
         <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2818,7 +4098,7 @@
         <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2862,7 +4142,7 @@
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2873,7 +4153,7 @@
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2917,7 +4197,7 @@
         <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2928,7 +4208,7 @@
         <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2939,7 +4219,7 @@
         <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2961,7 +4241,7 @@
         <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2972,7 +4252,7 @@
         <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2983,7 +4263,7 @@
         <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3005,7 +4285,7 @@
         <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3038,7 +4318,7 @@
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3060,7 +4340,7 @@
         <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3126,7 +4406,7 @@
         <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3137,7 +4417,7 @@
         <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3170,7 +4450,7 @@
         <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3181,7 +4461,7 @@
         <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3192,7 +4472,7 @@
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3225,7 +4505,7 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3247,7 +4527,7 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3280,7 +4560,7 @@
         <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3291,7 +4571,7 @@
         <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3302,7 +4582,7 @@
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3335,7 +4615,7 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3357,7 +4637,7 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3390,7 +4670,7 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3478,7 +4758,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3489,7 +4769,7 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3500,7 +4780,7 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3511,7 +4791,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3522,7 +4802,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3555,7 +4835,7 @@
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3566,7 +4846,7 @@
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3577,7 +4857,7 @@
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3588,7 +4868,7 @@
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3610,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3643,7 +4923,7 @@
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3654,7 +4934,7 @@
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3665,7 +4945,7 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3742,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3808,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3830,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3852,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3874,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3885,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3896,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3918,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3929,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4017,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4050,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4061,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4072,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/DisassembleData/Instruction_1900012739_.xlsx
+++ b/DisassembleData/Instruction_1900012739_.xlsx
@@ -17,7 +17,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="172">
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
   <si>
     <t>movq</t>
   </si>
@@ -511,6 +517,9 @@
     <t>setge</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>双参指令</t>
   </si>
   <si>
@@ -521,14 +530,25 @@
   </si>
   <si>
     <t>无参指令</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -544,7 +564,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -552,12 +572,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,231 +933,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>17654</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>5769</v>
+        <v>17654</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>4202</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>3453</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>3332</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>3316</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2645</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1907</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1444</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>1379</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1303</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>1246</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1211</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>876</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>867</v>
+        <v>876</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>783</v>
+        <v>867</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>678</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>615</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>585</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>498</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>400</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>354</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>323</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>276</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>276</v>
@@ -1127,63 +1165,63 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>171</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>144</v>
@@ -1191,103 +1229,103 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>91</v>
@@ -1295,55 +1333,55 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>63</v>
@@ -1351,31 +1389,31 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>52</v>
@@ -1383,47 +1421,47 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -1431,31 +1469,31 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>30</v>
@@ -1463,23 +1501,23 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>24</v>
@@ -1487,15 +1525,15 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>23</v>
@@ -1503,7 +1541,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>23</v>
@@ -1511,7 +1549,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>23</v>
@@ -1519,7 +1557,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>23</v>
@@ -1527,15 +1565,15 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>22</v>
@@ -1543,39 +1581,39 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>14</v>
@@ -1583,15 +1621,15 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>13</v>
@@ -1599,15 +1637,15 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>12</v>
@@ -1615,7 +1653,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>12</v>
@@ -1623,7 +1661,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>12</v>
@@ -1631,15 +1669,15 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>11</v>
@@ -1647,7 +1685,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>11</v>
@@ -1655,31 +1693,31 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -1687,7 +1725,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -1695,7 +1733,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -1703,7 +1741,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -1711,7 +1749,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -1719,15 +1757,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -1735,7 +1773,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>6</v>
@@ -1743,7 +1781,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>6</v>
@@ -1751,15 +1789,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -1767,7 +1805,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -1775,7 +1813,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -1783,15 +1821,15 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -1799,7 +1837,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -1807,7 +1845,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -1815,15 +1853,15 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -1831,7 +1869,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -1839,7 +1877,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -1847,7 +1885,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -1855,7 +1893,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -1863,7 +1901,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -1871,7 +1909,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>3</v>
@@ -1879,7 +1917,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>3</v>
@@ -1887,15 +1925,15 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -1903,7 +1941,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -1911,7 +1949,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -1919,7 +1957,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -1927,7 +1965,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -1935,7 +1973,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -1943,7 +1981,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1951,7 +1989,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -1959,7 +1997,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -1967,7 +2005,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -1975,7 +2013,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -1983,7 +2021,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -1991,7 +2029,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -1999,7 +2037,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -2007,15 +2045,15 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2023,7 +2061,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -2031,7 +2069,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -2039,7 +2077,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -2047,7 +2085,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -2055,7 +2093,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -2063,7 +2101,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -2071,7 +2109,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -2079,7 +2117,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -2087,7 +2125,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -2095,7 +2133,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -2103,7 +2141,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -2111,7 +2149,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -2119,7 +2157,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -2127,7 +2165,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -2135,7 +2173,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -2143,7 +2181,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -2151,7 +2189,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -2159,7 +2197,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -2167,7 +2205,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -2175,7 +2213,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -2183,7 +2221,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -2191,7 +2229,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -2199,7 +2237,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -2207,9 +2245,17 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
         <v>1</v>
       </c>
     </row>
@@ -2220,135 +2266,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>164</v>
+      <c r="B1" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>167</v>
@@ -2356,31 +2402,31 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>167</v>
@@ -2388,63 +2434,63 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>167</v>
@@ -2452,431 +2498,431 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>167</v>
@@ -2884,39 +2930,39 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>167</v>
@@ -2924,95 +2970,95 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
         <v>167</v>
@@ -3020,407 +3066,407 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" t="s">
         <v>167</v>
@@ -3428,95 +3474,95 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" t="s">
         <v>167</v>
@@ -3524,18 +3570,26 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3545,183 +3599,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>17654</v>
-      </c>
-      <c r="C1" t="s">
-        <v>164</v>
+      <c r="B1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>5769</v>
+        <v>17654</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>4202</v>
+        <v>5769</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>3453</v>
+        <v>4202</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>3332</v>
+        <v>3453</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>3316</v>
+        <v>3332</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2645</v>
+        <v>3316</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1907</v>
+        <v>2645</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1444</v>
+        <v>1907</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>1379</v>
+        <v>1444</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1303</v>
+        <v>1379</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>1246</v>
+        <v>1303</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1211</v>
+        <v>1246</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>876</v>
+        <v>1211</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>783</v>
+        <v>867</v>
       </c>
       <c r="C16" t="s">
         <v>167</v>
@@ -3729,43 +3783,43 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>678</v>
+        <v>783</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>615</v>
+        <v>677</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="C20" t="s">
         <v>167</v>
@@ -3773,84 +3827,84 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>498</v>
+        <v>585</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>400</v>
+        <v>498</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>276</v>
@@ -3861,593 +3915,593 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
         <v>167</v>
@@ -4455,51 +4509,51 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>13</v>
@@ -4510,128 +4564,128 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4642,557 +4696,557 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5203,128 +5257,128 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -5335,24 +5389,35 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
